--- a/FigDiff and  Yaw/FigDiff and  Yaw.xlsx
+++ b/FigDiff and  Yaw/FigDiff and  Yaw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BluetoothLE_FreeWrite\FigDiff and  Yaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189D29B-16D2-443A-97BB-A2B87411BE76}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D572ABEE-22B1-46F2-9E19-9AE16F24BFBD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{BEB8B61C-09AB-4109-B651-ADFC2BE2085B}"/>
   </bookViews>
@@ -259,37 +259,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>147</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>-90</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>-90</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>-90</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>-90</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>-90</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>-90</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>-90</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B10">
         <v>-90</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>-90</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <v>-90</v>
@@ -1718,22 +1718,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{CB036D53-8061-4040-9488-D8E79719B4D6}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>工作表1!A12:A12</xm:f>
-              <xm:sqref>B12</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{7FF07B70-840A-40BE-BC0E-6A32300CF74F}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -1778,6 +1762,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="span" xr2:uid="{CB036D53-8061-4040-9488-D8E79719B4D6}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>工作表1!A12:A12</xm:f>
+              <xm:sqref>B12</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
